--- a/Potionomics.xlsx
+++ b/Potionomics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>Name</t>
   </si>
@@ -43,7 +43,19 @@
     <t>Stock</t>
   </si>
   <si>
-    <t>Unnamed: 9</t>
+    <t>Taste</t>
+  </si>
+  <si>
+    <t>Sensation</t>
+  </si>
+  <si>
+    <t>Aroma</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Sound</t>
   </si>
   <si>
     <t>Fairy Flower Bulb</t>
@@ -971,13 +983,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J191"/>
+  <dimension ref="A1:N191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,10 +1020,22 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1040,10 +1064,22 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1072,10 +1108,22 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1102,12 +1150,24 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -1136,10 +1196,22 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1168,10 +1240,22 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1200,10 +1284,22 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -1232,10 +1328,22 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1264,10 +1372,22 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1294,12 +1414,24 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1328,10 +1460,22 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1360,10 +1504,22 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1392,10 +1548,22 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1424,10 +1592,22 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1456,10 +1636,22 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1488,10 +1680,22 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1518,12 +1722,24 @@
         <v>2</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1552,10 +1768,22 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1584,10 +1812,22 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -1616,10 +1856,22 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -1648,10 +1900,22 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>-1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -1680,10 +1944,22 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1712,10 +1988,22 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>12</v>
@@ -1744,10 +2032,22 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -1776,10 +2076,22 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>18</v>
@@ -1808,10 +2120,22 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1840,10 +2164,22 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -1872,10 +2208,22 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1904,10 +2252,22 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -1936,10 +2296,22 @@
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>9</v>
@@ -1968,10 +2340,22 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1998,12 +2382,24 @@
         <v>10</v>
       </c>
       <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>12</v>
@@ -2032,10 +2428,22 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>12</v>
@@ -2064,10 +2472,22 @@
       <c r="J34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2096,10 +2516,22 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2128,10 +2560,22 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2158,12 +2602,24 @@
         <v>4</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B38">
         <v>12</v>
@@ -2192,10 +2648,22 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2224,10 +2692,22 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2256,10 +2736,22 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2288,10 +2780,22 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2320,10 +2824,22 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>-1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2352,10 +2868,22 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>18</v>
@@ -2384,10 +2912,22 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>18</v>
@@ -2416,10 +2956,22 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>-1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2448,10 +3000,22 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2480,10 +3044,22 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>40</v>
@@ -2512,10 +3088,22 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>-1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B49">
         <v>15</v>
@@ -2544,10 +3132,22 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2576,10 +3176,22 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>20</v>
@@ -2608,10 +3220,22 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>30</v>
@@ -2640,10 +3264,22 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>-1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2672,10 +3308,22 @@
       <c r="J53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2704,10 +3352,22 @@
       <c r="J54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -2736,10 +3396,22 @@
       <c r="J55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B56">
         <v>30</v>
@@ -2768,10 +3440,22 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2798,12 +3482,24 @@
         <v>4</v>
       </c>
       <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B58">
         <v>30</v>
@@ -2832,10 +3528,22 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2864,10 +3572,22 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B60">
         <v>40</v>
@@ -2896,10 +3616,22 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2926,12 +3658,24 @@
         <v>2</v>
       </c>
       <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2958,12 +3702,24 @@
         <v>4</v>
       </c>
       <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2992,10 +3748,22 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-1</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -3024,10 +3792,22 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B65">
         <v>20</v>
@@ -3056,10 +3836,22 @@
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3088,10 +3880,22 @@
       <c r="J66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B67">
         <v>30</v>
@@ -3120,10 +3924,22 @@
       <c r="J67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3150,12 +3966,24 @@
         <v>1</v>
       </c>
       <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -3184,10 +4012,22 @@
       <c r="J69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B70">
         <v>30</v>
@@ -3216,10 +4056,22 @@
       <c r="J70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B71">
         <v>20</v>
@@ -3248,10 +4100,22 @@
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3280,10 +4144,22 @@
       <c r="J72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>-1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B73">
         <v>20</v>
@@ -3312,10 +4188,22 @@
       <c r="J73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3342,12 +4230,24 @@
         <v>2</v>
       </c>
       <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3376,10 +4276,22 @@
       <c r="J75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3408,10 +4320,22 @@
       <c r="J76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B77">
         <v>10</v>
@@ -3440,10 +4364,22 @@
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3472,10 +4408,22 @@
       <c r="J78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3504,10 +4452,22 @@
       <c r="J79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3534,12 +4494,24 @@
         <v>1</v>
       </c>
       <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3568,10 +4540,22 @@
       <c r="J81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B82">
         <v>10</v>
@@ -3600,10 +4584,22 @@
       <c r="J82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B83">
         <v>15</v>
@@ -3632,10 +4628,22 @@
       <c r="J83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -3664,10 +4672,22 @@
       <c r="J84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3694,12 +4714,24 @@
         <v>10</v>
       </c>
       <c r="J85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3726,12 +4758,24 @@
         <v>10</v>
       </c>
       <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3760,10 +4804,22 @@
       <c r="J87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3792,10 +4848,22 @@
       <c r="J88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>-1</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3824,10 +4892,22 @@
       <c r="J89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B90">
         <v>32</v>
@@ -3856,10 +4936,22 @@
       <c r="J90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B91">
         <v>32</v>
@@ -3888,10 +4980,22 @@
       <c r="J91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B92">
         <v>16</v>
@@ -3920,10 +5024,22 @@
       <c r="J92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B93">
         <v>24</v>
@@ -3952,10 +5068,22 @@
       <c r="J93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3984,10 +5112,22 @@
       <c r="J94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>-1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4016,10 +5156,22 @@
       <c r="J95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4048,10 +5200,22 @@
       <c r="J96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>-1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B97">
         <v>16</v>
@@ -4080,10 +5244,22 @@
       <c r="J97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B98">
         <v>64</v>
@@ -4112,10 +5288,22 @@
       <c r="J98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B99">
         <v>48</v>
@@ -4142,12 +5330,24 @@
         <v>2</v>
       </c>
       <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4174,12 +5374,24 @@
         <v>10</v>
       </c>
       <c r="J100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4208,10 +5420,22 @@
       <c r="J101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4240,10 +5464,22 @@
       <c r="J102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>-1</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B103">
         <v>24</v>
@@ -4270,12 +5506,24 @@
         <v>4</v>
       </c>
       <c r="J103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -4304,10 +5552,22 @@
       <c r="J104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4336,10 +5596,22 @@
       <c r="J105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B106">
         <v>16</v>
@@ -4368,10 +5640,22 @@
       <c r="J106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4400,10 +5684,22 @@
       <c r="J107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>-1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4432,10 +5728,22 @@
       <c r="J108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4464,10 +5772,22 @@
       <c r="J109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4494,12 +5814,24 @@
         <v>10</v>
       </c>
       <c r="J110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B111">
         <v>48</v>
@@ -4526,12 +5858,24 @@
         <v>2</v>
       </c>
       <c r="J111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B112">
         <v>96</v>
@@ -4560,10 +5904,22 @@
       <c r="J112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B113">
         <v>24</v>
@@ -4590,12 +5946,24 @@
         <v>10</v>
       </c>
       <c r="J113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>-1</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B114">
         <v>24</v>
@@ -4624,10 +5992,22 @@
       <c r="J114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4656,10 +6036,22 @@
       <c r="J115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B116">
         <v>24</v>
@@ -4688,10 +6080,22 @@
       <c r="J116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4718,12 +6122,24 @@
         <v>4</v>
       </c>
       <c r="J117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4750,12 +6166,24 @@
         <v>10</v>
       </c>
       <c r="J118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B119">
         <v>24</v>
@@ -4782,12 +6210,24 @@
         <v>4</v>
       </c>
       <c r="J119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B120">
         <v>32</v>
@@ -4816,10 +6256,22 @@
       <c r="J120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4848,10 +6300,22 @@
       <c r="J121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4880,10 +6344,22 @@
       <c r="J122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>-1</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4912,10 +6388,22 @@
       <c r="J123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4944,10 +6432,22 @@
       <c r="J124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B125">
         <v>64</v>
@@ -4976,10 +6476,22 @@
       <c r="J125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B126">
         <v>32</v>
@@ -5008,10 +6520,22 @@
       <c r="J126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>-1</v>
+      </c>
+      <c r="L126">
+        <v>-1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5040,10 +6564,22 @@
       <c r="J127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>-1</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -5072,10 +6608,22 @@
       <c r="J128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -5104,10 +6652,22 @@
       <c r="J129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B130">
         <v>24</v>
@@ -5136,10 +6696,22 @@
       <c r="J130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B131">
         <v>96</v>
@@ -5168,10 +6740,22 @@
       <c r="J131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>-1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -5200,10 +6784,22 @@
       <c r="J132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B133">
         <v>42</v>
@@ -5232,10 +6828,22 @@
       <c r="J133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B134">
         <v>55</v>
@@ -5262,12 +6870,24 @@
         <v>1</v>
       </c>
       <c r="J134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B135">
         <v>50</v>
@@ -5296,10 +6916,22 @@
       <c r="J135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B136">
         <v>28</v>
@@ -5328,10 +6960,22 @@
       <c r="J136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B137">
         <v>11</v>
@@ -5360,10 +7004,22 @@
       <c r="J137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -5392,10 +7048,22 @@
       <c r="J138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -5422,12 +7090,24 @@
         <v>1</v>
       </c>
       <c r="J139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -5456,10 +7136,22 @@
       <c r="J140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -5486,12 +7178,24 @@
         <v>10</v>
       </c>
       <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -5520,10 +7224,22 @@
       <c r="J142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>-1</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -5552,10 +7268,22 @@
       <c r="J143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B144">
         <v>22</v>
@@ -5584,10 +7312,22 @@
       <c r="J144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -5616,10 +7356,22 @@
       <c r="J145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B146">
         <v>33</v>
@@ -5648,10 +7400,22 @@
       <c r="J146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B147">
         <v>33</v>
@@ -5678,12 +7442,24 @@
         <v>10</v>
       </c>
       <c r="J147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>-1</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -5712,10 +7488,22 @@
       <c r="J148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>-1</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B149">
         <v>132</v>
@@ -5744,10 +7532,22 @@
       <c r="J149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>-1</v>
+      </c>
+      <c r="N149">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B150">
         <v>35</v>
@@ -5776,10 +7576,22 @@
       <c r="J150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>-1</v>
+      </c>
+      <c r="M150">
+        <v>-1</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B151">
         <v>33</v>
@@ -5808,10 +7620,22 @@
       <c r="J151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B152">
         <v>33</v>
@@ -5840,10 +7664,22 @@
       <c r="J152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B153">
         <v>66</v>
@@ -5870,12 +7706,24 @@
         <v>10</v>
       </c>
       <c r="J153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B154">
         <v>33</v>
@@ -5902,12 +7750,24 @@
         <v>4</v>
       </c>
       <c r="J154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B155">
         <v>132</v>
@@ -5936,10 +7796,22 @@
       <c r="J155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-1</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -5968,10 +7840,22 @@
       <c r="J156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -6000,10 +7884,22 @@
       <c r="J157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -6032,10 +7928,22 @@
       <c r="J158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>-1</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -6064,10 +7972,22 @@
       <c r="J159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -6096,10 +8016,22 @@
       <c r="J160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B161">
         <v>88</v>
@@ -6128,10 +8060,22 @@
       <c r="J161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-1</v>
+      </c>
+      <c r="L161">
+        <v>-1</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B162">
         <v>66</v>
@@ -6160,10 +8104,22 @@
       <c r="J162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -6190,12 +8146,24 @@
         <v>4</v>
       </c>
       <c r="J163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -6224,10 +8192,22 @@
       <c r="J164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -6256,10 +8236,22 @@
       <c r="J165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -6288,10 +8280,22 @@
       <c r="J166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -6320,10 +8324,22 @@
       <c r="J167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>-1</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -6352,10 +8368,22 @@
       <c r="J168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -6384,10 +8412,22 @@
       <c r="J169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B170">
         <v>44</v>
@@ -6416,10 +8456,22 @@
       <c r="J170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B171">
         <v>22</v>
@@ -6448,10 +8500,22 @@
       <c r="J171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B172">
         <v>22</v>
@@ -6480,10 +8544,22 @@
       <c r="J172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B173">
         <v>22</v>
@@ -6512,10 +8588,22 @@
       <c r="J173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B174">
         <v>33</v>
@@ -6544,10 +8632,22 @@
       <c r="J174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -6576,10 +8676,22 @@
       <c r="J175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>-1</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -6608,10 +8720,22 @@
       <c r="J176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>-1</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -6640,10 +8764,22 @@
       <c r="J177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B178">
         <v>42</v>
@@ -6672,10 +8808,22 @@
       <c r="J178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B179">
         <v>56</v>
@@ -6704,10 +8852,22 @@
       <c r="J179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>-1</v>
+      </c>
+      <c r="L179">
+        <v>-1</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B180">
         <v>28</v>
@@ -6736,10 +8896,22 @@
       <c r="J180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B181">
         <v>28</v>
@@ -6766,12 +8938,24 @@
         <v>1</v>
       </c>
       <c r="J181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>-1</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B182">
         <v>28</v>
@@ -6800,10 +8984,22 @@
       <c r="J182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -6832,10 +9028,22 @@
       <c r="J183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B184">
         <v>42</v>
@@ -6864,10 +9072,22 @@
       <c r="J184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B185">
         <v>80</v>
@@ -6894,12 +9114,24 @@
         <v>2</v>
       </c>
       <c r="J185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -6928,10 +9160,22 @@
       <c r="J186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B187">
         <v>70</v>
@@ -6958,12 +9202,24 @@
         <v>2</v>
       </c>
       <c r="J187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
+        <v>-1</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B188">
         <v>42</v>
@@ -6992,10 +9248,22 @@
       <c r="J188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B189">
         <v>98</v>
@@ -7024,10 +9292,22 @@
       <c r="J189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B190">
         <v>28</v>
@@ -7056,10 +9336,22 @@
       <c r="J190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B191">
         <v>28</v>
@@ -7086,6 +9378,18 @@
         <v>1</v>
       </c>
       <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>-1</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
         <v>0</v>
       </c>
     </row>
